--- a/Luban/Config/Datas/FightingBase.xlsx
+++ b/Luban/Config/Datas/FightingBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -64,10 +64,28 @@
     <t>最大法力值</t>
   </si>
   <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
+    <t>近战攻击力</t>
+  </si>
+  <si>
+    <t>远程攻击力</t>
+  </si>
+  <si>
+    <t>魔法攻击力</t>
+  </si>
+  <si>
+    <t>近战防御力</t>
+  </si>
+  <si>
+    <t>远程防御力</t>
+  </si>
+  <si>
+    <t>魔法防御力</t>
+  </si>
+  <si>
+    <t>元素魔法抗性</t>
+  </si>
+  <si>
+    <t>诅咒魔法抗性</t>
   </si>
   <si>
     <t>护甲</t>
@@ -76,7 +94,13 @@
     <t>物理攻击命中</t>
   </si>
   <si>
-    <t>魔法穿透</t>
+    <t>元素魔法命中</t>
+  </si>
+  <si>
+    <t>诅咒魔法命中</t>
+  </si>
+  <si>
+    <t>魔法穿透力</t>
   </si>
   <si>
     <t>闪避</t>
@@ -86,6 +110,18 @@
   </si>
   <si>
     <t>暴击</t>
+  </si>
+  <si>
+    <t>最低武器伤害</t>
+  </si>
+  <si>
+    <t>最高武器伤害</t>
+  </si>
+  <si>
+    <t>强韧</t>
+  </si>
+  <si>
+    <t>破甲能力</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1355,6 +1391,138 @@
         <v>12</v>
       </c>
     </row>
+    <row r="17" ht="16.5" spans="2:4">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:4">
+      <c r="B18" s="5">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:4">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:4">
+      <c r="B20" s="5">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:4">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:4">
+      <c r="B22" s="5">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:4">
+      <c r="B23" s="5">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:4">
+      <c r="B24" s="5">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:4">
+      <c r="B25" s="5">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:4">
+      <c r="B26" s="5">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:4">
+      <c r="B27" s="5">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:4">
+      <c r="B28" s="5">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/FightingBase.xlsx
+++ b/Luban/Config/Datas/FightingBase.xlsx
@@ -13,8 +13,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+从这里开始就是非人物属性了</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -122,6 +154,12 @@
   </si>
   <si>
     <t>破甲能力</t>
+  </si>
+  <si>
+    <t>剑类武器伤害</t>
+  </si>
+  <si>
+    <t>刀类武器伤害</t>
   </si>
 </sst>
 </file>
@@ -134,7 +172,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +343,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1105,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1523,9 +1572,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>